--- a/数据整理/stocks/A股/创业板/300258-精锻科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300258-精锻科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009686</t>
+          <t>005668</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏磐利一年定期开放混合A</t>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009687</t>
+          <t>009686</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏磐利一年定期开放混合C</t>
+          <t>华夏磐利一年定期开放混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.35</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.12</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3733</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>481017</t>
+          <t>519993</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银量化策略混合</t>
+          <t>长信增利动态策略混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.85</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519993</t>
+          <t>005589</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长信增利动态策略混合</t>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>75.78</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2567</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001830</t>
+          <t>002252</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>融通跨界成长灵活配置混合</t>
+          <t>融通成长30灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.99</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002252</t>
+          <t>009835</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>融通成长30灵活配置混合</t>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005589</t>
+          <t>481017</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
+          <t>工银量化策略混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>58.61</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005668</t>
+          <t>009687</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>融通新能源汽车主题精选灵活配置混合A</t>
+          <t>华夏磐利一年定期开放混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009835</t>
+          <t>001830</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>融通新能源汽车主题精选灵活配置混合C</t>
+          <t>融通跨界成长灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -800,15 +910,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.53</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.90</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4472</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -818,25 +938,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009835</t>
+          <t>002683</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通新能源汽车主题精选灵活配置混合C</t>
+          <t>民生加银前沿科技灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -846,25 +976,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002683</t>
+          <t>009835</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>民生加银前沿科技灵活配置混合</t>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.16</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300258-精锻科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300258-精锻科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8199</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300258-精锻科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300258-精锻科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1334,4 +1335,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300258-精锻科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300258-精锻科技.xlsx
@@ -1359,12 +1359,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300258-精锻科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300258-精锻科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.55</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1485,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.65</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="4">
@@ -1406,13 +1501,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300258-精锻科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300258-精锻科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.55</v>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.65</v>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1604,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300258-精锻科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300258-精锻科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.55</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.65</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.36</v>
       </c>
     </row>
@@ -566,6 +583,516 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014382</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -849,7 +1376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -943,7 +1470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1265,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1435,7 +1962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300258-精锻科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300258-精锻科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.55</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.65</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.36</v>
       </c>
     </row>
@@ -583,6 +600,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1092,7 +1431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1376,7 +1715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1470,7 +1809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1792,7 +2131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1962,7 +2301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
